--- a/doc/核心期刊映射表(2014.2.25).xlsx
+++ b/doc/核心期刊映射表(2014.2.25).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="RANGE_A1_F29" localSheetId="0">Sheet1!$C$2</definedName>
+    <definedName name="RANGE_A1_F29" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="379">
   <si>
     <t>刊号</t>
   </si>
@@ -27,21 +27,10 @@
     <t>类别</t>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教学类核心期刊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.教学类核心学术期刊目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.教学类核心学术期刊目录</t>
-  </si>
-  <si>
     <t>ISSN-1002-5731</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,13 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.工学II类</t>
-  </si>
-  <si>
-    <t>2.工学II类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A类核心期刊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,13 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.人文、社科类</t>
-  </si>
-  <si>
-    <t>3.人文、社科类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISSN-1004-5961</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,13 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.经济与管理类</t>
-  </si>
-  <si>
-    <t>4.经济与管理类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>American Economic Review, with Journal of Economic Literature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,10 +575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MIR; Management International Review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Journal of Operations Management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,13 +611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.思政类</t>
-  </si>
-  <si>
-    <t>5.思政类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISSN-1673-3010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,10 +647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.实验类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实验类核心期刊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,13 +663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.图书资料、档案类</t>
-  </si>
-  <si>
-    <t>7.图书资料、档案类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISSN-1002-1027</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,13 +679,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.出版专业类</t>
-  </si>
-  <si>
-    <t>8.出版专业类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出版类核心刊物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -772,13 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.会计专业类</t>
-  </si>
-  <si>
-    <t>9.会计专业类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会计类核心期刊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -811,13 +743,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.工程设计类</t>
-  </si>
-  <si>
-    <t>10.工程设计类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISSN-1001-6740</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1190,13 +1115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.产业开发管理类</t>
-  </si>
-  <si>
-    <t>11.产业开发管理类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISSN-1007-5429</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1257,13 +1175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.卫生技术类</t>
-  </si>
-  <si>
-    <t>12.卫生技术类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISSN-1008-1801</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1617,14 +1528,18 @@
   </si>
   <si>
     <t>ISSN-1001-1528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management International Review</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1634,14 +1549,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1674,13 +1581,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1693,7 +1599,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1767,6 +1673,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1801,6 +1708,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1976,18 +1884,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A393" sqref="A393"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1998,4330 +1905,4723 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">UPPER(A2)</f>
+        <v>ISSN-1002-5731</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1104-1109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1004-633X</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1003-160X</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1006-7469</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1003-7667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1003-4870</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>CN-31-1164</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-4808</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1007-2020</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0448-9365</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-8064</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>CN-44-1361</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-0845</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1000-5560</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-4417</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1000-4203</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1000-4394</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1004-3667</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1005-0450</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1001-960X</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1001-4233</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1001-4519</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-5111</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-4409</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>CN-44-1109</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1671-9042</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0529-1399</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1005-684X</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
+      <c r="A31" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">CN-11-5142/TU </v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-8528</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-0454</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>41</v>
+      <c r="A34" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>CN-31-1938/TU</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-1329</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1000-6664</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ISSN-1673-1530 </v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0412-3662</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>46</v>
+      <c r="A39" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>CN-31-1898/TS</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1004-5961</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0257-2826</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-4980</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1000-0216</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1671-4318</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">ISSN-1000-8934 </v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1000-4289</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0457-6241</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1001-6728</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-7963</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1004-0013</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1002-011X</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0453-2902</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0256-1891</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0511-4683</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0257-5914</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0257-0254</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1003-0263</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1006-6101</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1001-6368</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1003-7519</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1000-0429</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0578-1949</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-1007-8274</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0257-5876</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>ISSN-0257-0181</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C129" si="1">UPPER(A66)</f>
+        <v>ISSN-0461-6855</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-5502</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1000-2995</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1005-0566</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1003-2053</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-0577-9154</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1006-480X</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-7246</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1003-2886</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-9621</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-8870</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1000-3894</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-8102</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1003-3947</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1000-3355</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1006-9550</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1004-9789</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-0452-8832</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-896X</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1003-1707</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-5936</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1000-7881</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-5731</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1003-7667</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-0439-755X</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1000-6648</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1005-2577</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-5685</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1001-8867</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1000-0135</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1000-677X</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-834X</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-4565</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-1566</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1002-4921</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>ISSN-1000-4777</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>AMERICAN ECONOMIC REVIEW, WITH JOURNAL OF ECONOMIC LITERATURE</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF ECONOMIC PERSPECTIVES</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF POLITICAL ECONOMY</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>ACADEMY OF MANAGEMENT PERSPECTIVES</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>ECONOMETRICA</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF FINANCIAL ECONOMICS</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B101" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>HUMAN RESOURCE MANAGEMENT</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>HARVARD BUSINESS REVIEW</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>RAND JOURNAL OF ECONOMICS</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B102" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>INTERNATIONAL JOURNAL OF HUMAN RESOURCE MANAGEMENT</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2" t="s">
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>MARKETING SCIENCE</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B104" t="s">
-        <v>35</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF MARKETING RESEARCH</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B105" t="s">
-        <v>35</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF MARKETING</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B106" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF BUSINESS VENTURING</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B107" t="s">
-        <v>35</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
+      <c r="B116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF CONSUMER RESEARCH</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B108" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF INTERNATIONAL BUSINESS STUDIES</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B109" t="s">
-        <v>35</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF BUSINESS ETHICS</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B110" t="s">
-        <v>35</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2" t="s">
+      <c r="B119" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>ACCOUNTING REVIEW</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2" t="s">
+      <c r="B120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF FINANCE</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B112" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2" t="s">
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF ACCOUNTING RESEARCH</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B113" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2" t="s">
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v>REVIEW OF FINANCIAL STUDIES</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2" t="s">
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v>ACCOUNTING, ORGANIZATIONS AND SOCIETY</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B115" t="s">
-        <v>35</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2" t="s">
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF FINANCIAL AND QUANTITATIVE ANALYSIS</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B116" t="s">
-        <v>35</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2" t="s">
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF ACCOUNTING AND ECONOMICS</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B117" t="s">
-        <v>35</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="2" t="s">
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF THE AMERICAN STATISTICAL ASSOCIATION</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B118" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2" t="s">
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v>OPERATIONS RESEARCH</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B119" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2" t="s">
+      <c r="B128" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="1"/>
+        <v>JOURNAL OF APPLIED PSYCHOLOGY</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2" t="s">
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="1"/>
+        <v>ORGANIZATIONAL BEHAVIOR AND HUMAN DECISION PROCESSES</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B121" t="s">
-        <v>35</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2" t="s">
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" ref="C130:C193" si="2">UPPER(A130)</f>
+        <v>ADMINISTRATIVE SCIENCE QUARTERLY</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B122" t="s">
-        <v>35</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2" t="s">
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="2"/>
+        <v>ORGANIZATION SCIENCE</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B123" t="s">
-        <v>35</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="2" t="s">
+      <c r="B132" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="2"/>
+        <v>MANAGEMENT SCIENCE</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B124" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="2" t="s">
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="2"/>
+        <v>MIT SLOAN MANAGEMENT REVIEW</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B125" t="s">
-        <v>35</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2" t="s">
+      <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="2"/>
+        <v>ACADEMY OF MANAGEMENT JOURNAL</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B126" t="s">
-        <v>35</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="2" t="s">
+      <c r="B135" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="2"/>
+        <v>CALIFORNIA MANAGEMENT REVIEW</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B127" t="s">
-        <v>35</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2" t="s">
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="2"/>
+        <v>MIS QUARTERLY</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B128" t="s">
-        <v>35</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="2" t="s">
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="2"/>
+        <v>ACADEMY OF MANAGEMENT REVIEW</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B129" t="s">
-        <v>35</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="2" t="s">
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="2"/>
+        <v>STRATEGIC MANAGEMENT JOURNAL</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="2"/>
+        <v>MANAGEMENT INTERNATIONAL REVIEW</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B130" t="s">
-        <v>35</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="2" t="s">
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="2"/>
+        <v>JOURNAL OF OPERATIONS MANAGEMENT</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B131" t="s">
-        <v>35</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2" t="s">
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="2"/>
+        <v>INFORMATION SYSTEMS RESEARCH</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B132" t="s">
-        <v>35</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="2" t="s">
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="2"/>
+        <v>ENTREPRENEURSHIP THEORY AND PRACTICE</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B133" t="s">
-        <v>35</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2" t="s">
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="2"/>
+        <v>中国社会科学</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B134" t="s">
-        <v>35</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
+      <c r="B144" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="2"/>
+        <v>经济研究</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B135" t="s">
-        <v>35</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2" t="s">
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="2"/>
+        <v>管理科学学报</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B136" t="s">
-        <v>35</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="2" t="s">
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="2"/>
+        <v>管理世界</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B137" t="s">
-        <v>35</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2" t="s">
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="2"/>
+        <v>系统工程理论与实践</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B138" t="s">
-        <v>35</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B139" t="s">
-        <v>35</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B140" t="s">
-        <v>35</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B141" t="s">
-        <v>35</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B142" t="s">
-        <v>35</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B143" t="s">
-        <v>35</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B144" t="s">
-        <v>35</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B145" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B146" t="s">
-        <v>35</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B147" t="s">
-        <v>35</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="B148" t="s">
-        <v>35</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>109</v>
+        <v>30</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="2"/>
+        <v>数量经济技术经济研究</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>35</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>159</v>
+        <v>30</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1673-3010</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>159</v>
+        <v>30</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-6045</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B151" t="s">
-        <v>35</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-4417</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>35</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-4808</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">ISSN-1004-3667 </v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>35</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1009-2528</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-5707</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1007-192X</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>35</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">ISSN-1007-5968 </v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1674-5337</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>170</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1006-7167</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-4956</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1672-4305</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>175</v>
+        <v>30</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1001-8867</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>35</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>175</v>
+        <v>30</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-1027</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B164" t="s">
-        <v>35</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1000-0135</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>35</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-0252-3116</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>35</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1001-201X</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>35</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-1620</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>182</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">ISSN-1009-3060 </v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>182</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-4166</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>182</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1671-9220</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>182</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">ISSN-1007-3884 </v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>182</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-0495-5692</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1001-4314</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1001-7143</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1005-5827</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>192</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1009-6345</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>192</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1674-5434</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>192</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1671-0622</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>192</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1004-0994</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>192</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1005-0892</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>192</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1004-4914</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B182" t="s">
-        <v>35</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>201</v>
+        <v>30</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-0529-1399</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B183" t="s">
-        <v>35</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>201</v>
+        <v>30</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1005-684X</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>35</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1001-6740</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B185" t="s">
-        <v>35</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-8528</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B186" t="s">
-        <v>35</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-0454</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1000-3363</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B188" t="s">
-        <v>35</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1002-1329</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>35</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1000-6664</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B190" t="s">
-        <v>35</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1673-1530</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B191" t="s">
-        <v>35</v>
-      </c>
-      <c r="C191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-0412-3662</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B192" t="s">
+        <v>30</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="2"/>
+        <v>CN-31-1898/TS</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B193" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="2"/>
+        <v>ISSN-1001-831</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B194" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" ref="C194:C257" si="3">UPPER(A194)</f>
+        <v>CN-51-1260</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B195" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-1031</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B196" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-23-1157</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1001-4233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B198" t="s">
+        <v>30</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-42-1026</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B199" t="s">
+        <v>30</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-4750</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B200" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-11-2595</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B201" t="s">
+        <v>30</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-0254-7805</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B202" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-42-1250</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1002-8331</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-11-2127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B205" t="s">
+        <v>30</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1007-4708</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B206" t="s">
+        <v>30</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-21-1373</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B207" t="s">
+        <v>30</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1002-848X</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B208" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-11-2833</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B209" t="s">
+        <v>30</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-6869</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B192" t="s">
-        <v>35</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2" t="s">
+      <c r="B210" t="s">
+        <v>30</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-11-1931</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B211" t="s">
+        <v>30</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-0254-0053</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B212" t="s">
+        <v>30</v>
+      </c>
+      <c r="C212" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-31-1829</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B213" t="s">
+        <v>30</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-0992</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B214" t="s">
+        <v>30</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-11-1774</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B193" t="s">
-        <v>35</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="2" t="s">
+      <c r="B215" t="s">
+        <v>30</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-0253-374X</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B194" t="s">
-        <v>35</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="2" t="s">
+      <c r="B216" t="s">
+        <v>30</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-31-1267</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B195" t="s">
-        <v>35</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="2" t="s">
+      <c r="B217" t="s">
+        <v>30</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-131X</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B196" t="s">
-        <v>35</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B197" t="s">
-        <v>35</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="2" t="s">
+      <c r="B218" t="s">
+        <v>30</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-11-2120</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B219" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-4548</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B198" t="s">
-        <v>35</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B199" t="s">
-        <v>35</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="2" t="s">
+      <c r="B220" t="s">
+        <v>30</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-32-1124</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B200" t="s">
-        <v>35</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="2" t="s">
+      <c r="B221" t="s">
+        <v>30</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-0887</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B222" t="s">
+        <v>30</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-51-1137</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B201" t="s">
-        <v>35</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B202" t="s">
-        <v>35</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="2" t="s">
+      <c r="B223" t="s">
+        <v>30</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1004-4523</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B203" t="s">
-        <v>35</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="2" t="s">
+      <c r="B224" t="s">
+        <v>30</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-32-1349</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B204" t="s">
-        <v>35</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="2" t="s">
+      <c r="B225" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1001-7372</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B205" t="s">
-        <v>35</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="2" t="s">
+      <c r="B226" t="s">
+        <v>30</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-61-1313</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B206" t="s">
-        <v>35</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="2" t="s">
+      <c r="B227" t="s">
+        <v>30</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-8993</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B207" t="s">
-        <v>35</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="2" t="s">
+      <c r="B228" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-11-2068</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B208" t="s">
-        <v>35</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="2" t="s">
+      <c r="B229" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1005-0159</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B209" t="s">
-        <v>35</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="2" t="s">
+      <c r="B230" t="s">
+        <v>30</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-31-1358</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B210" t="s">
-        <v>35</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="2" t="s">
+      <c r="B231" t="s">
+        <v>30</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-0879</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B211" t="s">
-        <v>35</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="2" t="s">
+      <c r="B232" t="s">
+        <v>30</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-11-2064</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B212" t="s">
-        <v>35</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B213" t="s">
-        <v>35</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B214" t="s">
-        <v>35</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B215" t="s">
-        <v>35</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B216" t="s">
-        <v>35</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B217" t="s">
-        <v>35</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B218" t="s">
-        <v>35</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B219" t="s">
-        <v>35</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B220" t="s">
-        <v>35</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B221" t="s">
-        <v>35</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B222" t="s">
-        <v>35</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B223" t="s">
-        <v>35</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B224" t="s">
-        <v>35</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B225" t="s">
-        <v>35</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B226" t="s">
-        <v>35</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B227" t="s">
-        <v>35</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B228" t="s">
-        <v>35</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B229" t="s">
-        <v>35</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B230" t="s">
-        <v>35</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B231" t="s">
-        <v>35</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B232" t="s">
-        <v>35</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="B233" t="s">
-        <v>35</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1003-4722</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="2" t="s">
-        <v>229</v>
+      <c r="A234" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B234" t="s">
-        <v>35</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="3"/>
+        <v>CN-11-2120</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B235" t="s">
-        <v>35</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1001-4632</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B236" t="s">
-        <v>35</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-0258-2724</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B237" t="s">
-        <v>35</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-0054</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B238" t="s">
-        <v>35</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1001-0505</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B239" t="s">
-        <v>35</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-2472</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B240" t="s">
-        <v>35</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1002-8471</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B241" t="s">
-        <v>35</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1005-829X</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="B242" t="s">
-        <v>35</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-3770</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B243" t="s">
-        <v>35</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1001-6791</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B244" t="s">
-        <v>35</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-4602</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B245" t="s">
-        <v>35</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-8942</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B246" t="s">
-        <v>35</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-0250-3301</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B247" t="s">
-        <v>35</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1003-2487</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B248" t="s">
-        <v>35</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-0253-2468</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B249" t="s">
-        <v>35</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1001-6929</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B250" t="s">
-        <v>35</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1001-3865</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B251" t="s">
-        <v>35</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1000-6923</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B252" t="s">
-        <v>35</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1003-8493</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B253" t="s">
-        <v>35</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1001-5531</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B254" t="s">
-        <v>35</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1674-8417</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="B255" t="s">
-        <v>35</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1004-440X</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B256" t="s">
-        <v>35</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1003-8930</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B257" t="s">
-        <v>35</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C257" t="str">
+        <f t="shared" si="3"/>
+        <v>ISSN-1007-449X</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B258" t="s">
-        <v>35</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C258" t="str">
+        <f t="shared" ref="C258:C321" si="4">UPPER(A258)</f>
+        <v>ISSN-1000-1026</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B259" t="s">
-        <v>35</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1001-2095</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B260" t="s">
-        <v>35</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1000-3673</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B261" t="s">
-        <v>35</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C261" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1002-087X</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B262" t="s">
-        <v>35</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C262" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1003-6520</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B263" t="s">
-        <v>35</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C263" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1001-1609</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B264" t="s">
-        <v>35</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C264" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1002-0446</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B265" t="s">
-        <v>35</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C265" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1000-8152</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B266" t="s">
-        <v>35</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C266" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1000-436X</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B267" t="s">
-        <v>35</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C267" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1002-0411</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B268" t="s">
-        <v>35</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C268" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1002-8501</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B269" t="s">
-        <v>35</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C269" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-0253-4339</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="B270" t="s">
-        <v>35</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C270" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1003-0344</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B271" t="s">
-        <v>35</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C271" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1000-4416</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="B272" t="s">
-        <v>35</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C272" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1009-8402</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B273" t="s">
-        <v>35</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C273" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1009-7716</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="B274" t="s">
-        <v>35</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" si="4"/>
+        <v>CN-31-1523/TU</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B275" t="s">
-        <v>35</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C275" t="str">
+        <f t="shared" si="4"/>
+        <v>CN-31-1656/TU</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="2" t="s">
-        <v>286</v>
+      <c r="A276" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B276" t="s">
-        <v>35</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C276" t="str">
+        <f t="shared" si="4"/>
+        <v>上海建设工程咨询</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B277" t="s">
-        <v>35</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C277" t="str">
+        <f t="shared" si="4"/>
+        <v>CN-11-4531/N</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B278" t="s">
-        <v>35</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C278" t="str">
+        <f t="shared" si="4"/>
+        <v>CN-11-3151/TB</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="B279" t="s">
-        <v>35</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C279" t="str">
+        <f t="shared" si="4"/>
+        <v>CN-12-1275/G3</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="B280" t="s">
-        <v>35</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C280" t="str">
+        <f t="shared" si="4"/>
+        <v>CN-11-1010</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B281" t="s">
-        <v>35</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C281" t="str">
+        <f t="shared" si="4"/>
+        <v>CN-11-1047</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="B282" t="s">
-        <v>35</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C282" t="str">
+        <f t="shared" si="4"/>
+        <v>CN-11-1517</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B283" t="s">
-        <v>35</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" si="4"/>
+        <v>CN-11-1081</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="B284" t="s">
-        <v>35</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C284" t="str">
+        <f t="shared" si="4"/>
+        <v>CN-11-1389</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="B285" t="s">
-        <v>35</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>296</v>
+        <v>30</v>
+      </c>
+      <c r="C285" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1007-5429</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="B286" t="s">
-        <v>35</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>296</v>
+        <v>30</v>
+      </c>
+      <c r="C286" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1672-0334</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B287" t="s">
-        <v>35</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C287" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1003-1952</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B288" t="s">
-        <v>35</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C288" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1003-2886</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B289" t="s">
-        <v>35</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C289" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1002-7246</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="B290" t="s">
-        <v>35</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C290" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1002-5766</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B291" t="s">
-        <v>35</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C291" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1003-2053</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B292" t="s">
-        <v>35</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C292" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1008-3448</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B293" t="s">
-        <v>35</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C293" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1002-4239</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="B294" t="s">
-        <v>35</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C294" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1003-7624</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="B295" t="s">
-        <v>35</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C295" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1004-8308</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B296" t="s">
-        <v>35</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1671-8615</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="B297" t="s">
-        <v>35</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C297" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1009-5829</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B298" t="s">
-        <v>35</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C298" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1006-480X</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B299" t="s">
-        <v>35</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C299" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1003-207X</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B300" t="s">
-        <v>35</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C300" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1002-6711</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>35</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C301" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1002-9753</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="B302" t="s">
-        <v>35</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C302" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1009-3060</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B303" t="s">
-        <v>35</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>295</v>
+        <v>30</v>
+      </c>
+      <c r="C303" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1002-4247</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B304" t="s">
-        <v>35</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>313</v>
+        <v>30</v>
+      </c>
+      <c r="C304" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1008-1801</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="B305" t="s">
-        <v>35</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>313</v>
+        <v>30</v>
+      </c>
+      <c r="C305" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1674-5809</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="B306" t="s">
-        <v>35</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C306" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1000-1182</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B307" t="s">
-        <v>35</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C307" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1674-2907</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="B308" t="s">
-        <v>35</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C308" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1008-5882</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="B309" t="s">
-        <v>35</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C309" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1674-2397</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B310" t="s">
-        <v>35</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1674-1935</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="B311" t="s">
-        <v>35</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1674-1927</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B312" t="s">
-        <v>35</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-0529-5807</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="B313" t="s">
-        <v>35</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-0529-5815</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B314" t="s">
-        <v>35</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-0578-1426</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="B315" t="s">
-        <v>35</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1005-1201</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="B316" t="s">
-        <v>35</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1001-0939</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="B317" t="s">
-        <v>35</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1009-9158</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="B318" t="s">
-        <v>35</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ISSN-0529-567X </v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="B319" t="s">
-        <v>35</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C319" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-1000-6702</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="B320" t="s">
-        <v>35</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C320" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-0253-3758</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="B321" t="s">
-        <v>35</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C321" t="str">
+        <f t="shared" si="4"/>
+        <v>ISSN-0253-3766</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="B322" t="s">
-        <v>35</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C322" t="str">
+        <f t="shared" ref="C322:C385" si="5">UPPER(A322)</f>
+        <v>ISSN-1674-0815</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="B323" t="s">
-        <v>35</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C323" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1671-7368</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B324" t="s">
-        <v>35</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C324" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0253-9624</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B325" t="s">
-        <v>35</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C325" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0412-4081</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="B326" t="s">
-        <v>35</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C326" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1006-7884</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="B327" t="s">
-        <v>35</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C327" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1006-7876</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="B328" t="s">
-        <v>35</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1673-0860</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="B329" t="s">
-        <v>35</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C329" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1000-8039</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="B330" t="s">
-        <v>35</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C330" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0578-1310</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="B331" t="s">
-        <v>35</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C331" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">ISSN-0376-2491 </v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B332" t="s">
-        <v>35</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C332" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0366-6999</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="B333" t="s">
-        <v>35</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C333" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1002-0098</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B334" t="s">
-        <v>35</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C334" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">ISSN-0254-5101 </v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="B335" t="s">
-        <v>35</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0254-6450</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="B336" t="s">
-        <v>35</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1007-8118</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="B337" t="s">
-        <v>35</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C337" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1671-7600</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B338" t="s">
-        <v>35</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C338" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1671-0282</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B339" t="s">
-        <v>35</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C339" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1007-3418</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="B340" t="s">
-        <v>35</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0254-1424</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="B341" t="s">
-        <v>35</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C341" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1004-4477</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="B342" t="s">
-        <v>35</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C342" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1001-9391</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="B343" t="s">
-        <v>35</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C343" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1007-631X</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="B344" t="s">
-        <v>35</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1001-2346</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="B345" t="s">
-        <v>35</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">ISSN-0253-9780 </v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="B346" t="s">
-        <v>35</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1007-5232</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="B347" t="s">
-        <v>35</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0255-7053</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="B348" t="s">
-        <v>35</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1673-677X</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="B349" t="s">
-        <v>35</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1009-6906</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="B350" t="s">
-        <v>35</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1000-6680</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="B351" t="s">
-        <v>35</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1007-5232</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B352" t="s">
-        <v>35</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">ISSN-1007-9408 </v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="B353" t="s">
-        <v>35</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1007-6638</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="B354" t="s">
-        <v>35</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1671-0290</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B355" t="s">
-        <v>35</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1009-4598</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="B356" t="s">
-        <v>35</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">ISSN-0254-5098 </v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="B357" t="s">
-        <v>35</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1004-4221</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="B358" t="s">
-        <v>35</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1007-7480</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="B359" t="s">
-        <v>35</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C359" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1001-7097</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="B360" t="s">
-        <v>35</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C360" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0253-3006</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="B361" t="s">
-        <v>35</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">ISSN-0412-4030 </v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="B362" t="s">
-        <v>35</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C362" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0253-2727</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="B363" t="s">
-        <v>35</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">ISSN-1000-6672 </v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B364" t="s">
-        <v>35</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C364" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1671-4555</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B365" t="s">
-        <v>35</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C365" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">ISSN-1007-6239 </v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="B366" t="s">
-        <v>35</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C366" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1003-9406</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="B367" t="s">
-        <v>35</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C367" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1671-0274</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="B368" t="s">
-        <v>35</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C368" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1000-6699</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="B369" t="s">
-        <v>35</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1006-1924</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="B370" t="s">
-        <v>35</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1001-9030</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="B371" t="s">
-        <v>35</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0254-1432</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="B372" t="s">
-        <v>35</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0253-2352</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="B373" t="s">
-        <v>35</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0254-9026</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="B374" t="s">
-        <v>35</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C374" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1671-8925</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="B375" t="s">
-        <v>35</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C375" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1003-9279</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="B376" t="s">
-        <v>35</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1005-1015</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="B377" t="s">
-        <v>35</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1005-054X</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="B378" t="s">
-        <v>35</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0254-1416</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="B379" t="s">
-        <v>35</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0254-1785</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="B380" t="s">
-        <v>35</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1001-8050</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B381" t="s">
-        <v>35</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1001-4497</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B382" t="s">
-        <v>35</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1001-2036</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B383" t="s">
-        <v>35</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C383" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-1008-1275</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B384" t="s">
-        <v>35</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C384" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">ISSN-1009-2587 </v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="B385" t="s">
-        <v>35</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C385" t="str">
+        <f t="shared" si="5"/>
+        <v>ISSN-0513-4870</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="B386" t="s">
-        <v>35</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C386" t="str">
+        <f t="shared" ref="C386:C394" si="6">UPPER(A386)</f>
+        <v>ISSN-1003-3734</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="B387" t="s">
-        <v>35</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C387" t="str">
+        <f t="shared" si="6"/>
+        <v>ISSN-1001-1978</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B388" t="s">
-        <v>35</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C388" t="str">
+        <f t="shared" si="6"/>
+        <v>ISSN-0254-1793</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="B389" t="s">
-        <v>35</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C389" t="str">
+        <f t="shared" si="6"/>
+        <v>ISSN-1003-3734</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="B390" t="s">
-        <v>35</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C390" t="str">
+        <f t="shared" si="6"/>
+        <v>ISSN-0253-2670</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="B391" t="s">
-        <v>35</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C391" t="str">
+        <f t="shared" si="6"/>
+        <v>ISSN-1001-5302</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B392" t="s">
-        <v>35</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C392" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">ISSN-1003-5370 </v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B393" t="s">
-        <v>35</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" si="6"/>
+        <v>ISSN-0255-2930</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B394" t="s">
-        <v>35</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>312</v>
+        <v>30</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" si="6"/>
+        <v>ISSN-1001-1528</v>
       </c>
     </row>
   </sheetData>
@@ -6332,12 +6632,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6345,12 +6645,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
